--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H2">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I2">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J2">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N2">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O2">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P2">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q2">
-        <v>168.1471899713125</v>
+        <v>121.076905979601</v>
       </c>
       <c r="R2">
-        <v>672.5887598852501</v>
+        <v>484.307623918404</v>
       </c>
       <c r="S2">
-        <v>0.01480278252927305</v>
+        <v>0.009700547444363362</v>
       </c>
       <c r="T2">
-        <v>0.008791332702696629</v>
+        <v>0.005805069697542081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H3">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I3">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J3">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N3">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O3">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P3">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q3">
-        <v>0.9940179539290001</v>
+        <v>3.087865679565333</v>
       </c>
       <c r="R3">
-        <v>5.964107723574</v>
+        <v>18.527194077392</v>
       </c>
       <c r="S3">
-        <v>8.750804342739435E-05</v>
+        <v>0.0002473963740987193</v>
       </c>
       <c r="T3">
-        <v>7.79561871976676E-05</v>
+        <v>0.0002220730122911913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H4">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I4">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J4">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N4">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O4">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P4">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q4">
-        <v>0.5194514577850001</v>
+        <v>0.9545942253705</v>
       </c>
       <c r="R4">
-        <v>2.077805831140001</v>
+        <v>3.818376901482</v>
       </c>
       <c r="S4">
-        <v>4.572973812656095E-05</v>
+        <v>7.648103078288078E-05</v>
       </c>
       <c r="T4">
-        <v>2.715876839254837E-05</v>
+        <v>4.576831532249901E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H5">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I5">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J5">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N5">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O5">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P5">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q5">
-        <v>72.597235139624</v>
+        <v>37.31390519730866</v>
       </c>
       <c r="R5">
-        <v>435.583410837744</v>
+        <v>223.883431183852</v>
       </c>
       <c r="S5">
-        <v>0.006391073702639321</v>
+        <v>0.002989548706852098</v>
       </c>
       <c r="T5">
-        <v>0.005693462205796191</v>
+        <v>0.002683540084774905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H6">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I6">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J6">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N6">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O6">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P6">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q6">
-        <v>1.411826506098667</v>
+        <v>0.3266432214576667</v>
       </c>
       <c r="R6">
-        <v>8.470959036592001</v>
+        <v>1.959859328746</v>
       </c>
       <c r="S6">
-        <v>0.0001242896818103681</v>
+        <v>2.617029268705985E-05</v>
       </c>
       <c r="T6">
-        <v>0.000110722961255404</v>
+        <v>2.349151538994848E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H7">
         <v>380.699402</v>
       </c>
       <c r="I7">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J7">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N7">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O7">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P7">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q7">
-        <v>4193.411844267541</v>
+        <v>3167.176519120927</v>
       </c>
       <c r="R7">
-        <v>25160.47106560525</v>
+        <v>19003.05911472556</v>
       </c>
       <c r="S7">
-        <v>0.3691656315931337</v>
+        <v>0.2537506706157689</v>
       </c>
       <c r="T7">
-        <v>0.3288697125001695</v>
+        <v>0.2277768863826101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H8">
         <v>380.699402</v>
       </c>
       <c r="I8">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J8">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N8">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O8">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P8">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q8">
-        <v>24.78974916043266</v>
+        <v>80.77358432140979</v>
       </c>
       <c r="R8">
-        <v>223.107742443894</v>
+        <v>726.9622588926881</v>
       </c>
       <c r="S8">
-        <v>0.00218235740864727</v>
+        <v>0.00647149000564263</v>
       </c>
       <c r="T8">
-        <v>0.002916216430239568</v>
+        <v>0.008713607574894752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H9">
         <v>380.699402</v>
       </c>
       <c r="I9">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J9">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N9">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O9">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P9">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q9">
-        <v>12.95456615105667</v>
+        <v>24.970644826283</v>
       </c>
       <c r="R9">
-        <v>77.72739690634</v>
+        <v>149.823868957698</v>
       </c>
       <c r="S9">
-        <v>0.001140450967559376</v>
+        <v>0.002000620373422124</v>
       </c>
       <c r="T9">
-        <v>0.001015966140193555</v>
+        <v>0.001795837931722053</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H10">
         <v>380.699402</v>
       </c>
       <c r="I10">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J10">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N10">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O10">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P10">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q10">
-        <v>1810.497729682629</v>
+        <v>976.0715589935143</v>
       </c>
       <c r="R10">
-        <v>16294.47956714366</v>
+        <v>8784.644030941628</v>
       </c>
       <c r="S10">
-        <v>0.1593865717696914</v>
+        <v>0.07820177093644542</v>
       </c>
       <c r="T10">
-        <v>0.2129833259724588</v>
+        <v>0.1052956186299988</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H11">
         <v>380.699402</v>
       </c>
       <c r="I11">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J11">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N11">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O11">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P11">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q11">
-        <v>35.20944949323911</v>
+        <v>8.544459678421557</v>
       </c>
       <c r="R11">
-        <v>316.885045439152</v>
+        <v>76.900137105794</v>
       </c>
       <c r="S11">
-        <v>0.003099652298160694</v>
+        <v>0.000684572634445603</v>
       </c>
       <c r="T11">
-        <v>0.004141969103735862</v>
+        <v>0.0009217502133001467</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H12">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I12">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J12">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N12">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O12">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P12">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q12">
-        <v>2605.694118137</v>
+        <v>5536.645176626383</v>
       </c>
       <c r="R12">
-        <v>15634.164708822</v>
+        <v>33219.8710597583</v>
       </c>
       <c r="S12">
-        <v>0.2293914241157916</v>
+        <v>0.4435898719407199</v>
       </c>
       <c r="T12">
-        <v>0.2043524240688497</v>
+        <v>0.3981842476172712</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H13">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I13">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J13">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N13">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O13">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P13">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q13">
-        <v>15.403806250448</v>
+        <v>141.2029526400018</v>
       </c>
       <c r="R13">
-        <v>138.634256254032</v>
+        <v>1270.826573760016</v>
       </c>
       <c r="S13">
-        <v>0.00135606901362634</v>
+        <v>0.01131302398493157</v>
       </c>
       <c r="T13">
-        <v>0.001812072909050742</v>
+        <v>0.0152325432634701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H14">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I14">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J14">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N14">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O14">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P14">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q14">
-        <v>8.049683187919999</v>
+        <v>43.652003416931</v>
       </c>
       <c r="R14">
-        <v>48.29809912752</v>
+        <v>261.912020501586</v>
       </c>
       <c r="S14">
-        <v>0.0007086512101727932</v>
+        <v>0.003497350107862792</v>
       </c>
       <c r="T14">
-        <v>0.0006312990695983258</v>
+        <v>0.003139363203359229</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H15">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I15">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J15">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N15">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O15">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P15">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q15">
-        <v>1125.003567580288</v>
+        <v>1706.302713637066</v>
       </c>
       <c r="R15">
-        <v>10125.03210822259</v>
+        <v>15356.7244227336</v>
       </c>
       <c r="S15">
-        <v>0.0990393188157859</v>
+        <v>0.1367070812898952</v>
       </c>
       <c r="T15">
-        <v>0.1323431659846011</v>
+        <v>0.1840707252936713</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H16">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I16">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J16">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N16">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O16">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P16">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q16">
-        <v>21.87837943291733</v>
+        <v>14.93685027651756</v>
       </c>
       <c r="R16">
-        <v>196.905414896256</v>
+        <v>134.431652488658</v>
       </c>
       <c r="S16">
-        <v>0.001926055932862448</v>
+        <v>0.001196723880614545</v>
       </c>
       <c r="T16">
-        <v>0.002573728727805143</v>
+        <v>0.001611341787144559</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H17">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I17">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J17">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N17">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O17">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P17">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q17">
-        <v>471.2414765032187</v>
+        <v>153.3911795685945</v>
       </c>
       <c r="R17">
-        <v>1884.965906012875</v>
+        <v>613.564718274378</v>
       </c>
       <c r="S17">
-        <v>0.04148558829107283</v>
+        <v>0.01228953121087109</v>
       </c>
       <c r="T17">
-        <v>0.02463817922830943</v>
+        <v>0.007354387537239397</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H18">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I18">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J18">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N18">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O18">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P18">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q18">
-        <v>2.7857883819535</v>
+        <v>3.911987633857333</v>
       </c>
       <c r="R18">
-        <v>16.714730291721</v>
+        <v>23.471925803144</v>
       </c>
       <c r="S18">
-        <v>0.0002452459633590582</v>
+        <v>0.0003134241112040753</v>
       </c>
       <c r="T18">
-        <v>0.0002184763763453777</v>
+        <v>0.000281342185201164</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H19">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I19">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J19">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N19">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O19">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P19">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q19">
-        <v>1.4557904415775</v>
+        <v>1.20936633666225</v>
       </c>
       <c r="R19">
-        <v>5.82316176631</v>
+        <v>4.837465346648999</v>
       </c>
       <c r="S19">
-        <v>0.0001281600324010333</v>
+        <v>9.689308982164271E-05</v>
       </c>
       <c r="T19">
-        <v>7.611389830241563E-05</v>
+        <v>5.798344298101164E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H20">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I20">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J20">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N20">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O20">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P20">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q20">
-        <v>203.457627112796</v>
+        <v>47.27263127693566</v>
       </c>
       <c r="R20">
-        <v>1220.745762676776</v>
+        <v>283.635787661614</v>
       </c>
       <c r="S20">
-        <v>0.01791132524181033</v>
+        <v>0.003787430797075947</v>
       </c>
       <c r="T20">
-        <v>0.01595623177962363</v>
+        <v>0.003399751386879512</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H21">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I21">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J21">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N21">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O21">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P21">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q21">
-        <v>3.956719154294667</v>
+        <v>0.4138211877161667</v>
       </c>
       <c r="R21">
-        <v>23.740314925768</v>
+        <v>2.482927126297</v>
       </c>
       <c r="S21">
-        <v>0.0003483284685306117</v>
+        <v>3.315489467165439E-05</v>
       </c>
       <c r="T21">
-        <v>0.0003103070099102293</v>
+        <v>2.976117721512546E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H22">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I22">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J22">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N22">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O22">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P22">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q22">
-        <v>83.29354976281249</v>
+        <v>201.910723706562</v>
       </c>
       <c r="R22">
-        <v>499.7612985768749</v>
+        <v>1211.464342239372</v>
       </c>
       <c r="S22">
-        <v>0.007332720240168469</v>
+        <v>0.01617686328366566</v>
       </c>
       <c r="T22">
-        <v>0.006532324222115456</v>
+        <v>0.01452100812679212</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H23">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I23">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J23">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N23">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O23">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P23">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q23">
-        <v>0.492397666145</v>
+        <v>5.14939813687289</v>
       </c>
       <c r="R23">
-        <v>4.431578995304999</v>
+        <v>46.344583231856</v>
       </c>
       <c r="S23">
-        <v>4.334806648335648E-05</v>
+        <v>0.0004125640685356434</v>
       </c>
       <c r="T23">
-        <v>5.792467503122587E-05</v>
+        <v>0.0005555013435216761</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H24">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I24">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J24">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N24">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O24">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P24">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q24">
-        <v>0.257315961425</v>
+        <v>1.591903999621</v>
       </c>
       <c r="R24">
-        <v>1.54389576855</v>
+        <v>9.551423997725999</v>
       </c>
       <c r="S24">
-        <v>2.2652725977371E-05</v>
+        <v>0.0001275415831801733</v>
       </c>
       <c r="T24">
-        <v>2.018008948279811E-05</v>
+        <v>0.0001144864942842962</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H25">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I25">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J25">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N25">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O25">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P25">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q25">
-        <v>35.96183450212</v>
+        <v>62.22555442551511</v>
       </c>
       <c r="R25">
-        <v>323.65651051908</v>
+        <v>560.0299898296361</v>
       </c>
       <c r="S25">
-        <v>0.003165888264795933</v>
+        <v>0.004985442418376812</v>
       </c>
       <c r="T25">
-        <v>0.004230478168937154</v>
+        <v>0.006712702759811498</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H26">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I26">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J26">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N26">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O26">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P26">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q26">
-        <v>0.6993637024933334</v>
+        <v>0.5447179931197779</v>
       </c>
       <c r="R26">
-        <v>6.29427332244</v>
+        <v>4.902461938078001</v>
       </c>
       <c r="S26">
-        <v>6.156825337754539E-05</v>
+        <v>4.364220156853907E-05</v>
       </c>
       <c r="T26">
-        <v>8.227174493477769E-05</v>
+        <v>5.876251339971638E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H27">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I27">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J27">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N27">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O27">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P27">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q27">
-        <v>316.7360098157709</v>
+        <v>104.73587174583</v>
       </c>
       <c r="R27">
-        <v>1900.416058894625</v>
+        <v>628.41523047498</v>
       </c>
       <c r="S27">
-        <v>0.02788375038139183</v>
+        <v>0.008391321902199539</v>
       </c>
       <c r="T27">
-        <v>0.0248401264542996</v>
+        <v>0.007532390637151816</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H28">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I28">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J28">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N28">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O28">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P28">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q28">
-        <v>1.872414760344334</v>
+        <v>2.671114703226667</v>
       </c>
       <c r="R28">
-        <v>16.851732843099</v>
+        <v>24.04003232904</v>
       </c>
       <c r="S28">
-        <v>0.0001648374171861382</v>
+        <v>0.0002140067480114859</v>
       </c>
       <c r="T28">
-        <v>0.0002202671214218905</v>
+        <v>0.0002881516959657734</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H29">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I29">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J29">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N29">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O29">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P29">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q29">
-        <v>0.9784819006483335</v>
+        <v>0.8257582860150001</v>
       </c>
       <c r="R29">
-        <v>5.870891403890001</v>
+        <v>4.95454971609</v>
       </c>
       <c r="S29">
-        <v>8.614033208998729E-05</v>
+        <v>6.61588381884672E-05</v>
       </c>
       <c r="T29">
-        <v>7.673776707449638E-05</v>
+        <v>5.93868545556605E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H30">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I30">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J30">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N30">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O30">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P30">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q30">
-        <v>136.7501805156827</v>
+        <v>32.27786800019334</v>
       </c>
       <c r="R30">
-        <v>1230.751624641144</v>
+        <v>290.50081200174</v>
       </c>
       <c r="S30">
-        <v>0.01203875713509007</v>
+        <v>0.002586066991103378</v>
       </c>
       <c r="T30">
-        <v>0.01608701728594257</v>
+        <v>0.00348203781559051</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H31">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I31">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J31">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N31">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O31">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P31">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q31">
-        <v>2.659433643643556</v>
+        <v>0.2825581168633334</v>
       </c>
       <c r="R31">
-        <v>23.934902792792</v>
+        <v>2.54302305177</v>
       </c>
       <c r="S31">
-        <v>0.0002341223655572489</v>
+        <v>2.263824299313141E-05</v>
       </c>
       <c r="T31">
-        <v>0.0003128504462281481</v>
+        <v>3.048150664765951E-05</v>
       </c>
     </row>
   </sheetData>
